--- a/natmiOut/OldD2/LR-pairs_lrc2p/Agt-Agtr1a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Agt-Agtr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Agtr1a</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.234928591778438</v>
+        <v>0.257198</v>
       </c>
       <c r="H2">
-        <v>0.234928591778438</v>
+        <v>0.5143960000000001</v>
       </c>
       <c r="I2">
-        <v>0.205696049029572</v>
+        <v>0.1969864112529235</v>
       </c>
       <c r="J2">
-        <v>0.205696049029572</v>
+        <v>0.1476779584913764</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>9.458023766122411</v>
+        <v>0.915118</v>
       </c>
       <c r="N2">
-        <v>9.458023766122411</v>
+        <v>1.830236</v>
       </c>
       <c r="O2">
-        <v>0.3453729495643977</v>
+        <v>0.025381845354499</v>
       </c>
       <c r="P2">
-        <v>0.3453729495643977</v>
+        <v>0.02093680630390697</v>
       </c>
       <c r="Q2">
-        <v>2.221960204382137</v>
+        <v>0.235366519364</v>
       </c>
       <c r="R2">
-        <v>2.221960204382137</v>
+        <v>0.9414660774560001</v>
       </c>
       <c r="S2">
-        <v>0.07104185116708625</v>
+        <v>0.004999878627359446</v>
       </c>
       <c r="T2">
-        <v>0.07104185116708625</v>
+        <v>0.003091904812290361</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.234928591778438</v>
+        <v>0.257198</v>
       </c>
       <c r="H3">
-        <v>0.234928591778438</v>
+        <v>0.5143960000000001</v>
       </c>
       <c r="I3">
-        <v>0.205696049029572</v>
+        <v>0.1969864112529235</v>
       </c>
       <c r="J3">
-        <v>0.205696049029572</v>
+        <v>0.1476779584913764</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.8245997815545</v>
+        <v>10.610183</v>
       </c>
       <c r="N3">
-        <v>2.8245997815545</v>
+        <v>31.830549</v>
       </c>
       <c r="O3">
-        <v>0.1031442066564379</v>
+        <v>0.2942855720124992</v>
       </c>
       <c r="P3">
-        <v>0.1031442066564379</v>
+        <v>0.3641224623272735</v>
       </c>
       <c r="Q3">
-        <v>0.6635792490182822</v>
+        <v>2.728917847234</v>
       </c>
       <c r="R3">
-        <v>0.6635792490182822</v>
+        <v>16.373507083404</v>
       </c>
       <c r="S3">
-        <v>0.02121635578951896</v>
+        <v>0.057970258714256</v>
       </c>
       <c r="T3">
-        <v>0.02121635578951896</v>
+        <v>0.05377286187734486</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.234928591778438</v>
+        <v>0.257198</v>
       </c>
       <c r="H4">
-        <v>0.234928591778438</v>
+        <v>0.5143960000000001</v>
       </c>
       <c r="I4">
-        <v>0.205696049029572</v>
+        <v>0.1969864112529235</v>
       </c>
       <c r="J4">
-        <v>0.205696049029572</v>
+        <v>0.1476779584913764</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.1023345912027</v>
+        <v>4.698895333333333</v>
       </c>
       <c r="N4">
-        <v>15.1023345912027</v>
+        <v>14.096686</v>
       </c>
       <c r="O4">
-        <v>0.5514828437791643</v>
+        <v>0.130329241352092</v>
       </c>
       <c r="P4">
-        <v>0.5514828437791643</v>
+        <v>0.1612576653005389</v>
       </c>
       <c r="Q4">
-        <v>3.547970198078042</v>
+        <v>1.208546481942667</v>
       </c>
       <c r="R4">
-        <v>3.547970198078042</v>
+        <v>7.251278891656</v>
       </c>
       <c r="S4">
-        <v>0.1134378420729668</v>
+        <v>0.02567308953526471</v>
       </c>
       <c r="T4">
-        <v>0.1134378420729668</v>
+        <v>0.02381420280266925</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.784410941783681</v>
+        <v>0.257198</v>
       </c>
       <c r="H5">
-        <v>0.784410941783681</v>
+        <v>0.5143960000000001</v>
       </c>
       <c r="I5">
-        <v>0.6868054259340164</v>
+        <v>0.1969864112529235</v>
       </c>
       <c r="J5">
-        <v>0.6868054259340164</v>
+        <v>0.1476779584913764</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.458023766122411</v>
+        <v>19.829841</v>
       </c>
       <c r="N5">
-        <v>9.458023766122411</v>
+        <v>39.659682</v>
       </c>
       <c r="O5">
-        <v>0.3453729495643977</v>
+        <v>0.55000334128091</v>
       </c>
       <c r="P5">
-        <v>0.3453729495643977</v>
+        <v>0.4536830660682807</v>
       </c>
       <c r="Q5">
-        <v>7.418977329796517</v>
+        <v>5.100195445518001</v>
       </c>
       <c r="R5">
-        <v>7.418977329796517</v>
+        <v>20.400781782072</v>
       </c>
       <c r="S5">
-        <v>0.2372040157316637</v>
+        <v>0.1083431843760434</v>
       </c>
       <c r="T5">
-        <v>0.2372040157316637</v>
+        <v>0.06699898899907193</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.784410941783681</v>
+        <v>0.8072116666666668</v>
       </c>
       <c r="H6">
-        <v>0.784410941783681</v>
+        <v>2.421635</v>
       </c>
       <c r="I6">
-        <v>0.6868054259340164</v>
+        <v>0.6182385918170351</v>
       </c>
       <c r="J6">
-        <v>0.6868054259340164</v>
+        <v>0.6952272432352978</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>2.8245997815545</v>
+        <v>0.915118</v>
       </c>
       <c r="N6">
-        <v>2.8245997815545</v>
+        <v>1.830236</v>
       </c>
       <c r="O6">
-        <v>0.1031442066564379</v>
+        <v>0.025381845354499</v>
       </c>
       <c r="P6">
-        <v>0.1031442066564379</v>
+        <v>0.02093680630390697</v>
       </c>
       <c r="Q6">
-        <v>2.215646974811145</v>
+        <v>0.7386939259766667</v>
       </c>
       <c r="R6">
-        <v>2.215646974811145</v>
+        <v>4.43216355586</v>
       </c>
       <c r="S6">
-        <v>0.07084000078530105</v>
+        <v>0.01569203632968321</v>
       </c>
       <c r="T6">
-        <v>0.07084000078530105</v>
+        <v>0.01455583812881665</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.784410941783681</v>
+        <v>0.8072116666666668</v>
       </c>
       <c r="H7">
-        <v>0.784410941783681</v>
+        <v>2.421635</v>
       </c>
       <c r="I7">
-        <v>0.6868054259340164</v>
+        <v>0.6182385918170351</v>
       </c>
       <c r="J7">
-        <v>0.6868054259340164</v>
+        <v>0.6952272432352978</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.1023345912027</v>
+        <v>10.610183</v>
       </c>
       <c r="N7">
-        <v>15.1023345912027</v>
+        <v>31.830549</v>
       </c>
       <c r="O7">
-        <v>0.5514828437791643</v>
+        <v>0.2942855720124992</v>
       </c>
       <c r="P7">
-        <v>0.5514828437791643</v>
+        <v>0.3641224623272735</v>
       </c>
       <c r="Q7">
-        <v>11.84643649981757</v>
+        <v>8.564663503068333</v>
       </c>
       <c r="R7">
-        <v>11.84643649981757</v>
+        <v>77.081971527615</v>
       </c>
       <c r="S7">
-        <v>0.3787614094170516</v>
+        <v>0.1819386976330782</v>
       </c>
       <c r="T7">
-        <v>0.3787614094170516</v>
+        <v>0.253147855683839</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.122775703394442</v>
+        <v>0.8072116666666668</v>
       </c>
       <c r="H8">
-        <v>0.122775703394442</v>
+        <v>2.421635</v>
       </c>
       <c r="I8">
-        <v>0.1074985250364116</v>
+        <v>0.6182385918170351</v>
       </c>
       <c r="J8">
-        <v>0.1074985250364116</v>
+        <v>0.6952272432352978</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.458023766122411</v>
+        <v>4.698895333333333</v>
       </c>
       <c r="N8">
-        <v>9.458023766122411</v>
+        <v>14.096686</v>
       </c>
       <c r="O8">
-        <v>0.3453729495643977</v>
+        <v>0.130329241352092</v>
       </c>
       <c r="P8">
-        <v>0.3453729495643977</v>
+        <v>0.1612576653005389</v>
       </c>
       <c r="Q8">
-        <v>1.161215520607028</v>
+        <v>3.793003133512222</v>
       </c>
       <c r="R8">
-        <v>1.161215520607028</v>
+        <v>34.13702820161</v>
       </c>
       <c r="S8">
-        <v>0.03712708266564772</v>
+        <v>0.08057456664609983</v>
       </c>
       <c r="T8">
-        <v>0.03712708266564772</v>
+        <v>0.112110722097454</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.122775703394442</v>
+        <v>0.8072116666666668</v>
       </c>
       <c r="H9">
-        <v>0.122775703394442</v>
+        <v>2.421635</v>
       </c>
       <c r="I9">
-        <v>0.1074985250364116</v>
+        <v>0.6182385918170351</v>
       </c>
       <c r="J9">
-        <v>0.1074985250364116</v>
+        <v>0.6952272432352978</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.8245997815545</v>
+        <v>19.829841</v>
       </c>
       <c r="N9">
-        <v>2.8245997815545</v>
+        <v>39.659682</v>
       </c>
       <c r="O9">
-        <v>0.1031442066564379</v>
+        <v>0.55000334128091</v>
       </c>
       <c r="P9">
-        <v>0.1031442066564379</v>
+        <v>0.4536830660682807</v>
       </c>
       <c r="Q9">
-        <v>0.3467922249881409</v>
+        <v>16.006879003345</v>
       </c>
       <c r="R9">
-        <v>0.3467922249881409</v>
+        <v>96.04127402007001</v>
       </c>
       <c r="S9">
-        <v>0.0110878500816179</v>
+        <v>0.340033291208174</v>
       </c>
       <c r="T9">
-        <v>0.0110878500816179</v>
+        <v>0.3154128273251883</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.064689</v>
+      </c>
+      <c r="H10">
+        <v>0.194067</v>
+      </c>
+      <c r="I10">
+        <v>0.0495449185356821</v>
+      </c>
+      <c r="J10">
+        <v>0.05571469912391608</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.915118</v>
+      </c>
+      <c r="N10">
+        <v>1.830236</v>
+      </c>
+      <c r="O10">
+        <v>0.025381845354499</v>
+      </c>
+      <c r="P10">
+        <v>0.02093680630390697</v>
+      </c>
+      <c r="Q10">
+        <v>0.05919806830199999</v>
+      </c>
+      <c r="R10">
+        <v>0.3551884098119999</v>
+      </c>
+      <c r="S10">
+        <v>0.001257541460373934</v>
+      </c>
+      <c r="T10">
+        <v>0.001166487863837886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.064689</v>
+      </c>
+      <c r="H11">
+        <v>0.194067</v>
+      </c>
+      <c r="I11">
+        <v>0.0495449185356821</v>
+      </c>
+      <c r="J11">
+        <v>0.05571469912391608</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>10.610183</v>
+      </c>
+      <c r="N11">
+        <v>31.830549</v>
+      </c>
+      <c r="O11">
+        <v>0.2942855720124992</v>
+      </c>
+      <c r="P11">
+        <v>0.3641224623272735</v>
+      </c>
+      <c r="Q11">
+        <v>0.6863621280869999</v>
+      </c>
+      <c r="R11">
+        <v>6.177259152782999</v>
+      </c>
+      <c r="S11">
+        <v>0.01458035469158588</v>
+      </c>
+      <c r="T11">
+        <v>0.02028697343282351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.064689</v>
+      </c>
+      <c r="H12">
+        <v>0.194067</v>
+      </c>
+      <c r="I12">
+        <v>0.0495449185356821</v>
+      </c>
+      <c r="J12">
+        <v>0.05571469912391608</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.698895333333333</v>
+      </c>
+      <c r="N12">
+        <v>14.096686</v>
+      </c>
+      <c r="O12">
+        <v>0.130329241352092</v>
+      </c>
+      <c r="P12">
+        <v>0.1612576653005389</v>
+      </c>
+      <c r="Q12">
+        <v>0.303966840218</v>
+      </c>
+      <c r="R12">
+        <v>2.735701561961999</v>
+      </c>
+      <c r="S12">
+        <v>0.006457151645606647</v>
+      </c>
+      <c r="T12">
+        <v>0.008984422303644688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.064689</v>
+      </c>
+      <c r="H13">
+        <v>0.194067</v>
+      </c>
+      <c r="I13">
+        <v>0.0495449185356821</v>
+      </c>
+      <c r="J13">
+        <v>0.05571469912391608</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.829841</v>
+      </c>
+      <c r="N13">
+        <v>39.659682</v>
+      </c>
+      <c r="O13">
+        <v>0.55000334128091</v>
+      </c>
+      <c r="P13">
+        <v>0.4536830660682807</v>
+      </c>
+      <c r="Q13">
+        <v>1.282772584449</v>
+      </c>
+      <c r="R13">
+        <v>7.696635506693999</v>
+      </c>
+      <c r="S13">
+        <v>0.02724987073811565</v>
+      </c>
+      <c r="T13">
+        <v>0.02527681552361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.176565</v>
+      </c>
+      <c r="H14">
+        <v>0.35313</v>
+      </c>
+      <c r="I14">
+        <v>0.1352300783943593</v>
+      </c>
+      <c r="J14">
+        <v>0.1013800991494097</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.915118</v>
+      </c>
+      <c r="N14">
+        <v>1.830236</v>
+      </c>
+      <c r="O14">
+        <v>0.025381845354499</v>
+      </c>
+      <c r="P14">
+        <v>0.02093680630390697</v>
+      </c>
+      <c r="Q14">
+        <v>0.16157780967</v>
+      </c>
+      <c r="R14">
+        <v>0.64631123868</v>
+      </c>
+      <c r="S14">
+        <v>0.003432388937082405</v>
+      </c>
+      <c r="T14">
+        <v>0.002122575498962074</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.176565</v>
+      </c>
+      <c r="H15">
+        <v>0.35313</v>
+      </c>
+      <c r="I15">
+        <v>0.1352300783943593</v>
+      </c>
+      <c r="J15">
+        <v>0.1013800991494097</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.610183</v>
+      </c>
+      <c r="N15">
+        <v>31.830549</v>
+      </c>
+      <c r="O15">
+        <v>0.2942855720124992</v>
+      </c>
+      <c r="P15">
+        <v>0.3641224623272735</v>
+      </c>
+      <c r="Q15">
+        <v>1.873386961395</v>
+      </c>
+      <c r="R15">
+        <v>11.24032176837</v>
+      </c>
+      <c r="S15">
+        <v>0.03979626097357915</v>
+      </c>
+      <c r="T15">
+        <v>0.03691477133326618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.122775703394442</v>
-      </c>
-      <c r="H10">
-        <v>0.122775703394442</v>
-      </c>
-      <c r="I10">
-        <v>0.1074985250364116</v>
-      </c>
-      <c r="J10">
-        <v>0.1074985250364116</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>15.1023345912027</v>
-      </c>
-      <c r="N10">
-        <v>15.1023345912027</v>
-      </c>
-      <c r="O10">
-        <v>0.5514828437791643</v>
-      </c>
-      <c r="P10">
-        <v>0.5514828437791643</v>
-      </c>
-      <c r="Q10">
-        <v>1.854199752333124</v>
-      </c>
-      <c r="R10">
-        <v>1.854199752333124</v>
-      </c>
-      <c r="S10">
-        <v>0.05928359228914595</v>
-      </c>
-      <c r="T10">
-        <v>0.05928359228914595</v>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.176565</v>
+      </c>
+      <c r="H16">
+        <v>0.35313</v>
+      </c>
+      <c r="I16">
+        <v>0.1352300783943593</v>
+      </c>
+      <c r="J16">
+        <v>0.1013800991494097</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.698895333333333</v>
+      </c>
+      <c r="N16">
+        <v>14.096686</v>
+      </c>
+      <c r="O16">
+        <v>0.130329241352092</v>
+      </c>
+      <c r="P16">
+        <v>0.1612576653005389</v>
+      </c>
+      <c r="Q16">
+        <v>0.8296604545299999</v>
+      </c>
+      <c r="R16">
+        <v>4.97796272718</v>
+      </c>
+      <c r="S16">
+        <v>0.01762443352512077</v>
+      </c>
+      <c r="T16">
+        <v>0.01634831809677095</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.176565</v>
+      </c>
+      <c r="H17">
+        <v>0.35313</v>
+      </c>
+      <c r="I17">
+        <v>0.1352300783943593</v>
+      </c>
+      <c r="J17">
+        <v>0.1013800991494097</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>19.829841</v>
+      </c>
+      <c r="N17">
+        <v>39.659682</v>
+      </c>
+      <c r="O17">
+        <v>0.55000334128091</v>
+      </c>
+      <c r="P17">
+        <v>0.4536830660682807</v>
+      </c>
+      <c r="Q17">
+        <v>3.501255876165</v>
+      </c>
+      <c r="R17">
+        <v>14.00502350466</v>
+      </c>
+      <c r="S17">
+        <v>0.07437699495857703</v>
+      </c>
+      <c r="T17">
+        <v>0.04599443422041048</v>
       </c>
     </row>
   </sheetData>
